--- a/progress/ポータルサイト.xlsx
+++ b/progress/ポータルサイト.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24206"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ocs_2018021\Desktop\卒業研究\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFDB510-1252-4ADE-9288-C2E59892ADC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78AB86F3-411E-42EE-A78D-A00E7C802ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{0B9A8A0A-AA99-4B1F-BDA5-197E08B7FF4C}"/>
   </bookViews>
   <sheets>
     <sheet name="ポータル" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
+  <si>
+    <t>要素名</t>
+    <rPh sb="0" eb="3">
+      <t>ヨウソメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
   <si>
     <t>色</t>
     <rPh sb="0" eb="1">
@@ -43,9 +50,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>要素名</t>
+    <t>部品名（GUI）</t>
     <rPh sb="0" eb="3">
-      <t>ヨウソメイ</t>
+      <t>ブヒンメイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -60,6 +67,17 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>オレンジ、グラデーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン（遷移）</t>
+    <rPh sb="4" eb="6">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>お知らせ</t>
     <rPh sb="1" eb="2">
       <t>シ</t>
@@ -67,14 +85,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>オレンジ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オレンジ、グラデーション</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>便利な機能</t>
     <rPh sb="0" eb="2">
       <t>ベンリ</t>
@@ -85,10 +95,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>部品名（GUI）</t>
-    <rPh sb="0" eb="3">
-      <t>ブヒンメイ</t>
-    </rPh>
+    <t>白、グラデーション</t>
+    <rPh sb="0" eb="1">
+      <t>シロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボックス</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -102,6 +116,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>オレンジ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイコン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>教職単位一覧</t>
     <rPh sb="0" eb="4">
       <t>キョウショクタンイ</t>
@@ -119,40 +141,117 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アイコン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ボックス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ボタン（遷移）</t>
-    <rPh sb="4" eb="6">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>白、グラデーション</t>
-    <rPh sb="0" eb="1">
-      <t>シロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>紺色</t>
     <rPh sb="0" eb="2">
       <t>コンイロ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IM授業受講の流れ</t>
+  </si>
+  <si>
+    <t>講義概要</t>
+  </si>
+  <si>
+    <t>動作環境チェック</t>
+  </si>
+  <si>
+    <t>評価アンケート</t>
+  </si>
+  <si>
+    <t>オレンジ</t>
+  </si>
+  <si>
+    <t>履修登録手続　</t>
+  </si>
+  <si>
+    <t>青</t>
+  </si>
+  <si>
+    <t>ボタン</t>
+  </si>
+  <si>
+    <t>科目試験手続　</t>
+  </si>
+  <si>
+    <t>スクーリング受講手続　</t>
+  </si>
+  <si>
+    <t>IM授業受講手続き　</t>
+  </si>
+  <si>
+    <t>個人情報　</t>
+  </si>
+  <si>
+    <t>グレー</t>
+  </si>
+  <si>
+    <t>ボックス</t>
+  </si>
+  <si>
+    <t>現在のサイトの人数　</t>
+  </si>
+  <si>
+    <t>インターネット科目試験練習ページ一覧　</t>
+  </si>
+  <si>
+    <t>2021年度前期履修情報一覧　</t>
+  </si>
+  <si>
+    <t>緑</t>
+  </si>
+  <si>
+    <t>印刷授業[インターネット科目試験]　</t>
+  </si>
+  <si>
+    <t>黄</t>
+  </si>
+  <si>
+    <t>印刷授業[科目試験なし]</t>
+  </si>
+  <si>
+    <t>IM授業[インターネット科目試験]　</t>
+  </si>
+  <si>
+    <t>IPメディア授業　</t>
+  </si>
+  <si>
+    <t>面接授業（スクーリング）　</t>
+  </si>
+  <si>
+    <t>「レポート課題」「実習課題」合格科目一覧　</t>
+  </si>
+  <si>
+    <t>「レポート課題」「実習課題」合格科目一覧</t>
+  </si>
+  <si>
+    <t xml:space="preserve">インターネット科目試験印刷授業科目 </t>
+  </si>
+  <si>
+    <t>白</t>
+  </si>
+  <si>
+    <t>カレンダー</t>
+  </si>
+  <si>
+    <t>通信教育部からの最新のお知らせ　</t>
+  </si>
+  <si>
+    <t>履修表・許可証・成績表などのPDF ダウンロード　</t>
+  </si>
+  <si>
+    <t>履修表・許可証などのPDF一覧　</t>
+  </si>
+  <si>
+    <t>成績表PDF一覧　</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,7 +345,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -542,96 +641,368 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054B0394-92A6-4906-AD06-A841823310D8}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="39.950000000000003" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="41.375" customWidth="1"/>
+    <col min="1" max="1" width="48.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="39.950000000000003" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="39.950000000000003" customHeight="1">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="39.950000000000003" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="39.950000000000003" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="39.950000000000003" customHeight="1">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="39.950000000000003" customHeight="1">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="39.950000000000003" customHeight="1">
+      <c r="A7" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="39.950000000000003" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="39.950000000000003" customHeight="1">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="39.950000000000003" customHeight="1">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="39.950000000000003" customHeight="1">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="39.950000000000003" customHeight="1">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="39.950000000000003" customHeight="1">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="39.950000000000003" customHeight="1">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="39.950000000000003" customHeight="1">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="39.950000000000003" customHeight="1">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="39.950000000000003" customHeight="1">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="39.950000000000003" customHeight="1">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="39.950000000000003" customHeight="1">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="39.950000000000003" customHeight="1">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="39.950000000000003" customHeight="1">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="39.950000000000003" customHeight="1">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="39.950000000000003" customHeight="1">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="39.950000000000003" customHeight="1">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="39.950000000000003" customHeight="1">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="39.950000000000003" customHeight="1">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="39.950000000000003" customHeight="1">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="39.950000000000003" customHeight="1">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="39.950000000000003" customHeight="1">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="39.950000000000003" customHeight="1">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="39.950000000000003" customHeight="1">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="39.950000000000003" customHeight="1">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
